--- a/results/model_results.xlsx
+++ b/results/model_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,39 +501,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>Linear Regression</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03096782222089534</v>
+        <v>0.7273296003800066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3239183812143958</v>
+        <v>0.1275318251640928</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E4" t="n">
-        <v>4.324462407986245e+18</v>
+        <v>1.143733943497028e+18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVR (DeepWalk)</t>
+          <t>Linear Regression (DeepWalk)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0309678229751853</v>
+        <v>0.7283823288846416</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3239183814487645</v>
+        <v>0.1288970221675454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E5" t="n">
-        <v>4.324462411150163e+18</v>
+        <v>1.139318204473959e+18</v>
       </c>
     </row>
     <row r="6">

--- a/results/model_results.xlsx
+++ b/results/model_results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8792358717797251</v>
+        <v>0.8729421468563507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09551626279979879</v>
+        <v>0.1051252831215638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8859649122807017</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="E3" t="n">
-        <v>5.065530867848121e+17</v>
+        <v>5.329525303471802e+17</v>
       </c>
     </row>
     <row r="4">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7283823288846416</v>
+        <v>0.7265936585855144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1288970221675454</v>
+        <v>0.1282565415687074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7807017543859649</v>
       </c>
       <c r="E5" t="n">
-        <v>1.139318204473959e+18</v>
+        <v>1.146820899807549e+18</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8941550035226185</v>
+        <v>0.8942019173411979</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0909502617038732</v>
+        <v>0.08891213533681235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="E7" t="n">
-        <v>4.439738064315662e+17</v>
+        <v>4.437770233307851e+17</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_results.xlsx
+++ b/results/model_results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8729421468563507</v>
+        <v>0.8736440051109068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1051252831215638</v>
+        <v>0.09570328335973689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="E3" t="n">
-        <v>5.329525303471802e+17</v>
+        <v>5.300085396889423e+17</v>
       </c>
     </row>
     <row r="4">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7265936585855144</v>
+        <v>0.729328784996977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1282565415687074</v>
+        <v>0.1272000378706941</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7807017543859649</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E5" t="n">
-        <v>1.146820899807549e+18</v>
+        <v>1.135348231997238e+18</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8942019173411979</v>
+        <v>0.8867244174667016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08891213533681235</v>
+        <v>0.08974598511845473</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E7" t="n">
-        <v>4.437770233307851e+17</v>
+        <v>4.751418888639527e+17</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_results.xlsx
+++ b/results/model_results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8699285909147727</v>
+        <v>0.8635341292596914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09981387919584465</v>
+        <v>0.3540730117506894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.78</v>
       </c>
       <c r="E2" t="n">
-        <v>5.45593089153026e+17</v>
+        <v>4.822111486028375e+18</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8736440051109068</v>
+        <v>0.8630532496886421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09570328335973689</v>
+        <v>0.3602315458874696</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.784</v>
       </c>
       <c r="E3" t="n">
-        <v>5.300085396889423e+17</v>
+        <v>4.839103682614772e+18</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7273296003800066</v>
+        <v>0.6919142892318983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1275318251640928</v>
+        <v>0.6384143333807547</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.452</v>
       </c>
       <c r="E4" t="n">
-        <v>1.143733943497028e+18</v>
+        <v>1.088641164649281e+19</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.729328784996977</v>
+        <v>0.6947083994051351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1272000378706941</v>
+        <v>0.6073426258069087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.464</v>
       </c>
       <c r="E5" t="n">
-        <v>1.135348231997238e+18</v>
+        <v>1.078767992194878e+19</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8955686624480639</v>
+        <v>0.8660150897891783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08836123622718511</v>
+        <v>0.3877035484512394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.748</v>
       </c>
       <c r="E6" t="n">
-        <v>4.380441209951829e+17</v>
+        <v>4.734445110540337e+18</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8867244174667016</v>
+        <v>0.8669716588428347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08974598511845473</v>
+        <v>0.3909966662245142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="n">
-        <v>4.751418888639527e+17</v>
+        <v>4.700644112563388e+18</v>
       </c>
     </row>
   </sheetData>
